--- a/fileserv/SvtInfoBasicxlsx.xlsx
+++ b/fileserv/SvtInfoBasicxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE75B5-4852-4E9A-8E9A-17A4C126A5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9474CDD-4FCE-477C-887F-6C28F08F5336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FC0D6B8B-5862-466F-888E-A541E9430166}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="思源宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,7 +364,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,16 +373,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,7 +708,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -706,16 +719,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
       <c r="J1" s="6" t="s">
         <v>0</v>
@@ -742,14 +755,14 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -823,64 +836,64 @@
         <v>15</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -912,49 +925,49 @@
         <v>22</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1012,21 +1025,21 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1081,62 +1094,62 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="5" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="O22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -1165,22 +1178,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1209,22 +1222,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1253,806 +1266,853 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="O79" s="5" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="O79" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O79:T79"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:M65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="B66:M72"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:M79"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:M44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:M51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:M58"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:M37"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:M22"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:M7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:M9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="O2:T2"/>
@@ -2064,60 +2124,13 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:M7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:M9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:M22"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="O22:T22"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:M37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:M44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:M51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:M58"/>
-    <mergeCell ref="O79:T79"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:M65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:M72"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:M79"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
